--- a/VPN-PROVIDERS.xlsx
+++ b/VPN-PROVIDERS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aalfaroe\Documents\2023\CONFIG_FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D5AC06-F205-4F72-B6A4-BF7B018E57E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC5B7F3-1AA0-4D12-A928-99812A2F3BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14490" xr2:uid="{E1036616-F473-418E-8348-757CA6CEE75E}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="347">
   <si>
     <t>VPN provider</t>
   </si>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>vanished</t>
-  </si>
-  <si>
-    <t>it has config files here https://www.vanishedvpn.com/my-account/vpn-config-files/</t>
   </si>
   <si>
     <t>hide.me</t>
@@ -741,9 +738,6 @@
     <t>**nordvpn</t>
   </si>
   <si>
-    <t>20/11/2022</t>
-  </si>
-  <si>
     <t>https://nordvpn.com</t>
   </si>
   <si>
@@ -933,9 +927,6 @@
     <t>anonymizertester2@gmail.com : N#wtester2</t>
   </si>
   <si>
-    <t>vpncity</t>
-  </si>
-  <si>
     <t>vpngate</t>
   </si>
   <si>
@@ -1006,13 +997,103 @@
   </si>
   <si>
     <t>https://easy-hide-ip.com/en/account/server-info</t>
+  </si>
+  <si>
+    <t>it has config files here https://www.vanishedvpn.com/my-account/vpn-config-files/, but the hostnames aren't showing the ips</t>
+  </si>
+  <si>
+    <t>https://www.le-vpn.com/clients/index.php/knowledgebase/1561/How-to-update-OpenVPN-configuration-files-on-Windows.html</t>
+  </si>
+  <si>
+    <t>https://veepn.com/account/</t>
+  </si>
+  <si>
+    <t>is down not</t>
+  </si>
+  <si>
+    <t>https://www.vpngate.net/en/</t>
+  </si>
+  <si>
+    <t>does not have openvpn</t>
+  </si>
+  <si>
+    <t>https://support.privadovpn.com/kb/article/358-windows-openvpn-manual-setup/</t>
+  </si>
+  <si>
+    <t>took the config files downloaded last year october</t>
+  </si>
+  <si>
+    <t>https://mullvad.net/en/servers</t>
+  </si>
+  <si>
+    <t>nordvpn</t>
+  </si>
+  <si>
+    <t>https://support.purevpn.com/openvpn-files</t>
+  </si>
+  <si>
+    <t>https://help.trickbyte.com/vpn-on-windows-openvpn-protocol/</t>
+  </si>
+  <si>
+    <t>https://configs.ipvanish.com/configs/</t>
+  </si>
+  <si>
+    <t>https://support.getflix.com.au/hc/en-gb/articles/204759910-Full-VPN-Setup-For-Windows-OpenVPN</t>
+  </si>
+  <si>
+    <t>https://github.com/Zomboided/service.vpn.manager/issues/319</t>
+  </si>
+  <si>
+    <t>https://ironsocket.com/network#ovpn,%20also%20here%20are%20examples%20on%20how%20to%20download%20all%20of%20the%20files%20https://stackoverflow.com/questions/66873137/why-cant-i-locate-this-xpath-button</t>
+  </si>
+  <si>
+    <t>https://vpnbaron.com/members/downloads.php?a=config</t>
+  </si>
+  <si>
+    <t>https://www.ovpn.com/en/configurations</t>
+  </si>
+  <si>
+    <t>https://www.worldvpn.net/servers/</t>
+  </si>
+  <si>
+    <t>https://github.com/haugene/docker-transmission-openvpn/issues/724</t>
+  </si>
+  <si>
+    <t>https://vpnarea.com/front/home/androidold</t>
+  </si>
+  <si>
+    <t>https://ghostpath.com/servers</t>
+  </si>
+  <si>
+    <t>https://support.smartdnsproxy.com/article/140-vpn-setup-for-windows-openvpn</t>
+  </si>
+  <si>
+    <t>https://frootvpn.com/en/account/server-info</t>
+  </si>
+  <si>
+    <t>https://www.ivpn.net/openvpn-config</t>
+  </si>
+  <si>
+    <t>https://cryptostorm.is/windows?#ovpngui</t>
+  </si>
+  <si>
+    <t>https://www.azirevpn.com/cfg/openvpn</t>
+  </si>
+  <si>
+    <t>https://unlocator.com/account/server-list</t>
+  </si>
+  <si>
+    <t>https://vpntunnel.com/en/account/server-info</t>
+  </si>
+  <si>
+    <t>10/4/202</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,6 +1188,21 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1135,12 +1231,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1149,6 +1239,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1180,7 +1276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1251,10 +1347,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1265,19 +1358,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1286,22 +1376,55 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="42">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1329,7 +1452,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1357,7 +1484,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1385,7 +1516,139 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2332,7 +2595,7 @@
                   <c:v>9216</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7680</c:v>
+                  <c:v>30720</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1024</c:v>
@@ -2380,7 +2643,7 @@
                   <c:v>19456</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7363</c:v>
+                  <c:v>16640</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>24576</c:v>
@@ -2581,7 +2844,7 @@
                   <c:v>11008</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>15616</c:v>
+                  <c:v>22016</c:v>
                 </c:pt>
                 <c:pt idx="118">
                   <c:v>12800</c:v>
@@ -2593,7 +2856,7 @@
                   <c:v>12288</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>16640</c:v>
+                  <c:v>24320</c:v>
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>9216</c:v>
@@ -2626,7 +2889,7 @@
                   <c:v>22272</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3848</c:v>
+                  <c:v>3584</c:v>
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>1</c:v>
@@ -7643,384 +7906,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Up Arrow 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D10E85F-B353-46CF-977E-C9CC5AEEE112}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0D1E844D-7571-49D4-B451-7A42B1C66C6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="200025" y="7499488"/>
-          <a:ext cx="304800" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Up Arrow 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C4CC6A-E047-4185-ACD7-BBC830398882}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0D1E844D-7571-49D4-B451-7A42B1C66C6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="200025" y="9139445"/>
-          <a:ext cx="304800" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Up Arrow 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7078E081-5F04-48C7-A91F-C96FC7ED9135}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0D1E844D-7571-49D4-B451-7A42B1C66C6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="200025" y="9868314"/>
-          <a:ext cx="304800" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Up Arrow 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2E0F65-E93C-406A-A007-2B8186250F7F}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0D1E844D-7571-49D4-B451-7A42B1C66C6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="200025" y="10779401"/>
-          <a:ext cx="304800" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Up Arrow 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39CF116E-96E9-4215-B775-2990C4F6F49E}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0D1E844D-7571-49D4-B451-7A42B1C66C6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="200025" y="11143836"/>
-          <a:ext cx="304800" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Up Arrow 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7313D1CA-924C-40E7-B410-5EB1DC599347}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0D1E844D-7571-49D4-B451-7A42B1C66C6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="200025" y="12237140"/>
-          <a:ext cx="304800" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -8918,11 +8803,11 @@
   </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AE17D6E0-601F-4FB4-A65F-1826DD8A32C8}" name="VPN provider" totalsRowLabel="Total"/>
-    <tableColumn id="6" xr3:uid="{4CCECC57-9847-4C6D-B156-037F8016E0D9}" name="Ips" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{5C87A197-FBF6-4274-86D2-F198314A227D}" name="Last update" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{482F27F7-EEB5-48B2-9BDE-61BA5FA108E5}" name="New update" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{0B753844-0156-4B3D-80C4-0A842F0370F7}" name="Agent" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{831DF5DF-5545-4E69-AE42-4D0CA8F9B478}" name="Config files" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{4CCECC57-9847-4C6D-B156-037F8016E0D9}" name="Ips" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{5C87A197-FBF6-4274-86D2-F198314A227D}" name="Last update" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{482F27F7-EEB5-48B2-9BDE-61BA5FA108E5}" name="New update" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{0B753844-0156-4B3D-80C4-0A842F0370F7}" name="Agent" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{831DF5DF-5545-4E69-AE42-4D0CA8F9B478}" name="Config files" dataDxfId="33" totalsRowDxfId="32"/>
     <tableColumn id="4" xr3:uid="{772A878D-85D4-4FE9-A1CD-C364441B9759}" name="Notes"/>
     <tableColumn id="8" xr3:uid="{63855207-4CDA-4EBB-AF30-B6AF1BF5A5DE}" name="Subcription" totalsRowFunction="count"/>
   </tableColumns>
@@ -8931,44 +8816,46 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{152A279F-5C7F-43E6-A42D-9FDE2EB33B35}" name="Table3" displayName="Table3" ref="B4:M21" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{152A279F-5C7F-43E6-A42D-9FDE2EB33B35}" name="Table3" displayName="Table3" ref="B4:M21" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="B4:M21" xr:uid="{152A279F-5C7F-43E6-A42D-9FDE2EB33B35}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:C20">
     <sortCondition ref="B4:B20"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A9566894-49E8-422A-A23A-E44EB15AAB08}" name="Automated provider " dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{5444F2D6-7D9B-4A33-96D7-A9E534C1879A}" name="Last update" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{D9844C35-2F20-4930-87F9-4D2487FEF367}" name="Ips" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{64E49A08-F540-4DBB-9A0C-98A2541E74CF}" name="Traffic" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{61A8F2F8-2F82-40AF-9136-B3E25BE408AC}" name="link" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{43F2E67B-70BB-43D5-A129-6D6C5AFF793B}" name="Subscription start " dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{D2905E93-E48F-4955-9828-52AE416C2FAB}" name="Subscription end" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{A209A9C1-E443-41EE-B5C1-7F27C8E7EF56}" name="active" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{68A1123C-DFBD-467B-BAB7-B35A19FD003D}" name="username" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{5B359BA3-1593-403F-9BA5-6A4A325C3A0C}" name="password" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{A812A115-82FF-46E0-B9F9-958461DB583B}" name="Billing period" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{0EDAFE53-EC61-4303-BBC3-F694F18A325B}" name="Config link" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{A9566894-49E8-422A-A23A-E44EB15AAB08}" name="Automated provider " dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{5444F2D6-7D9B-4A33-96D7-A9E534C1879A}" name="Last update" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{D9844C35-2F20-4930-87F9-4D2487FEF367}" name="Ips" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{64E49A08-F540-4DBB-9A0C-98A2541E74CF}" name="Traffic" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{61A8F2F8-2F82-40AF-9136-B3E25BE408AC}" name="link" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{43F2E67B-70BB-43D5-A129-6D6C5AFF793B}" name="Subscription start " dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{D2905E93-E48F-4955-9828-52AE416C2FAB}" name="Subscription end" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{A209A9C1-E443-41EE-B5C1-7F27C8E7EF56}" name="active" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{68A1123C-DFBD-467B-BAB7-B35A19FD003D}" name="username" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{5B359BA3-1593-403F-9BA5-6A4A325C3A0C}" name="password" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{A812A115-82FF-46E0-B9F9-958461DB583B}" name="Billing period" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{0EDAFE53-EC61-4303-BBC3-F694F18A325B}" name="Config link" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D906A3BE-1315-46E9-B689-E2E41378EC4A}" name="Table2" displayName="Table2" ref="B4:I18" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B4:I18" xr:uid="{D906A3BE-1315-46E9-B689-E2E41378EC4A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B16">
-    <sortCondition ref="B4:B16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D906A3BE-1315-46E9-B689-E2E41378EC4A}" name="Table2" displayName="Table2" ref="B4:I18" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B4:I17" xr:uid="{D906A3BE-1315-46E9-B689-E2E41378EC4A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B15">
+    <sortCondition ref="B4:B15"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{2DB49E7D-65E2-4050-9802-CA97EDB5850F}" name="Vpn providers" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4ECC93CA-7A1E-4E78-BE08-35F8B93663C7}" name="Ips" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{814F723F-932B-4B44-9F9E-E2569FE8A6A2}" name="Last update" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{82F66EDF-6101-441C-AF4B-2E46ACE1A8B2}" name="New update" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{7FC7CB2C-52E0-4BA9-8EA4-F20E24DBBCC1}" name="Agent" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{97E56305-3FEA-424C-BB99-31837A4FAB29}" name="Notes" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{1ADC4530-9674-4E77-B34C-58CC106DD5F4}" name="Subcription" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{4403CA6B-3B70-46F8-BF09-A013DE5CECA0}" name="Credentials" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2DB49E7D-65E2-4050-9802-CA97EDB5850F}" name="Vpn providers" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{4ECC93CA-7A1E-4E78-BE08-35F8B93663C7}" name="Ips" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+      <totalsRowFormula>SUM(C5:C17)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{814F723F-932B-4B44-9F9E-E2569FE8A6A2}" name="Last update" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{82F66EDF-6101-441C-AF4B-2E46ACE1A8B2}" name="New update" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{7FC7CB2C-52E0-4BA9-8EA4-F20E24DBBCC1}" name="Agent" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{97E56305-3FEA-424C-BB99-31837A4FAB29}" name="Notes" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{1ADC4530-9674-4E77-B34C-58CC106DD5F4}" name="Subcription" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{4403CA6B-3B70-46F8-BF09-A013DE5CECA0}" name="Credentials" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9274,11 +9161,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:P171"/>
+  <dimension ref="A1:P175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F149" sqref="F149:F170"/>
+      <selection pane="topRight" activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9639,7 +9526,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I15" s="31"/>
     </row>
@@ -9721,7 +9608,7 @@
         <v>22016</v>
       </c>
       <c r="D19" s="21">
-        <v>42832</v>
+        <v>45154</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>48</v>
@@ -9951,9 +9838,6 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
       <c r="B29" s="15" t="s">
         <v>63</v>
       </c>
@@ -10079,7 +9963,7 @@
         <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I34" t="s">
         <v>17</v>
@@ -10090,11 +9974,11 @@
       <c r="B35" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="20">
-        <v>7680</v>
+      <c r="C35" s="56">
+        <v>30720</v>
       </c>
       <c r="D35" s="21">
-        <v>42948</v>
+        <v>45177</v>
       </c>
       <c r="E35" s="21">
         <v>30720</v>
@@ -10143,7 +10027,7 @@
         <v>22784</v>
       </c>
       <c r="D37" s="21">
-        <v>42954</v>
+        <v>45169</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="20" t="s">
@@ -10263,7 +10147,7 @@
         <v>82</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -10292,7 +10176,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="15" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C44" s="17">
         <v>18432</v>
@@ -10307,8 +10191,8 @@
       <c r="G44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="47" t="s">
-        <v>314</v>
+      <c r="H44" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="I44" s="31" t="s">
         <v>17</v>
@@ -10455,10 +10339,10 @@
         <v>93</v>
       </c>
       <c r="C51" s="20">
-        <v>7363</v>
+        <v>16640</v>
       </c>
       <c r="D51" s="21">
-        <v>43051</v>
+        <v>45181</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="20" t="s">
@@ -10470,6 +10354,7 @@
       <c r="H51" s="15" t="s">
         <v>94</v>
       </c>
+      <c r="I51" s="31"/>
     </row>
     <row r="52" spans="1:10">
       <c r="B52" t="s">
@@ -10489,7 +10374,7 @@
         <v>10</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I52" t="s">
         <v>17</v>
@@ -10652,29 +10537,29 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="16"/>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="47">
         <v>2306</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="48">
         <v>43168</v>
       </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="20" t="s">
+      <c r="E60" s="48"/>
+      <c r="F60" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="20" t="s">
+      <c r="G60" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="15" t="s">
-        <v>106</v>
+      <c r="H60" s="46" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="B61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="17">
         <v>9234</v>
@@ -10702,13 +10587,13 @@
     <row r="62" spans="1:10">
       <c r="A62" s="16"/>
       <c r="B62" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C62" s="20">
         <v>10496</v>
       </c>
-      <c r="D62" s="21">
-        <v>45177</v>
+      <c r="D62" s="21" t="s">
+        <v>346</v>
       </c>
       <c r="E62" s="21"/>
       <c r="F62" s="20" t="s">
@@ -10718,13 +10603,13 @@
         <v>15</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I62" s="31"/>
     </row>
     <row r="63" spans="1:10">
       <c r="B63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63" s="17">
         <v>6429</v>
@@ -10748,7 +10633,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="B64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C64" s="17">
         <v>256</v>
@@ -10772,7 +10657,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C65" s="17">
         <v>3075</v>
@@ -10793,7 +10678,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C66" s="17">
         <v>773</v>
@@ -10814,7 +10699,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" s="17">
         <v>10753</v>
@@ -10835,29 +10720,29 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="16"/>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="47">
+        <v>3585</v>
+      </c>
+      <c r="D68" s="48">
+        <v>43210</v>
+      </c>
+      <c r="E68" s="48"/>
+      <c r="F68" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="46" t="s">
         <v>115</v>
-      </c>
-      <c r="C68" s="20">
-        <v>3585</v>
-      </c>
-      <c r="D68" s="21">
-        <v>43210</v>
-      </c>
-      <c r="E68" s="21"/>
-      <c r="F68" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69" s="17">
         <v>768</v>
@@ -10878,7 +10763,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C70" s="17">
         <v>3076</v>
@@ -10902,7 +10787,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C71" s="17">
         <v>26</v>
@@ -10923,7 +10808,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C72" s="17">
         <v>779</v>
@@ -10948,13 +10833,13 @@
     <row r="73" spans="1:9">
       <c r="A73" s="16"/>
       <c r="B73" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C73" s="20">
         <v>8960</v>
       </c>
       <c r="D73" s="21">
-        <v>43308</v>
+        <v>45203</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>48</v>
@@ -10966,15 +10851,15 @@
         <v>15</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I73" s="31" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="17">
         <v>3853</v>
@@ -10984,12 +10869,12 @@
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C75" s="17">
         <v>508</v>
@@ -11005,12 +10890,12 @@
         <v>15</v>
       </c>
       <c r="H75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="B76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C76" s="17">
         <v>2562</v>
@@ -11031,7 +10916,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C77" s="17">
         <v>2542</v>
@@ -11052,7 +10937,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C78" s="17">
         <v>14336</v>
@@ -11068,12 +10953,12 @@
         <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C79" s="17">
         <v>503</v>
@@ -11095,7 +10980,7 @@
     <row r="80" spans="1:9">
       <c r="A80" s="16"/>
       <c r="B80" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C80" s="20">
         <v>8192</v>
@@ -11111,13 +10996,13 @@
         <v>15</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I80" s="31"/>
     </row>
     <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C81" s="17">
         <v>256</v>
@@ -11138,7 +11023,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C82" s="17">
         <v>16708</v>
@@ -11162,7 +11047,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C83" s="17">
         <v>1536</v>
@@ -11183,7 +11068,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C84" s="17">
         <v>27904</v>
@@ -11204,7 +11089,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C85" s="17">
         <v>3336</v>
@@ -11228,7 +11113,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C86" s="17">
         <v>31744</v>
@@ -11249,7 +11134,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C87" s="17">
         <v>6886</v>
@@ -11270,7 +11155,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C88" s="17">
         <v>3868</v>
@@ -11291,7 +11176,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C89" s="17">
         <v>5</v>
@@ -11312,7 +11197,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C90" s="17">
         <v>260</v>
@@ -11333,7 +11218,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C91" s="17">
         <v>2951</v>
@@ -11354,7 +11239,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C92" s="17">
         <v>4</v>
@@ -11375,7 +11260,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="B93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C93" s="17">
         <v>33</v>
@@ -11396,7 +11281,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C94" s="17">
         <v>6912</v>
@@ -11417,7 +11302,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C95" s="17">
         <v>512</v>
@@ -11439,7 +11324,7 @@
     <row r="96" spans="1:9">
       <c r="A96" s="16"/>
       <c r="B96" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C96" s="20">
         <v>9984</v>
@@ -11455,13 +11340,13 @@
         <v>15</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I96" s="31"/>
     </row>
     <row r="97" spans="1:16">
       <c r="B97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C97" s="17">
         <v>2</v>
@@ -11482,7 +11367,7 @@
     </row>
     <row r="98" spans="1:16" ht="17.25" customHeight="1">
       <c r="B98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C98" s="17">
         <v>3840</v>
@@ -11501,24 +11386,24 @@
         <v>28</v>
       </c>
       <c r="L98" t="s">
+        <v>152</v>
+      </c>
+      <c r="M98" t="s">
         <v>153</v>
       </c>
-      <c r="M98" t="s">
+      <c r="N98" t="s">
         <v>154</v>
       </c>
-      <c r="N98" t="s">
+      <c r="O98" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="O98" s="30" t="s">
+      <c r="P98" t="s">
         <v>156</v>
-      </c>
-      <c r="P98" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="B99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C99" s="17">
         <v>3072</v>
@@ -11537,7 +11422,7 @@
         <v>28</v>
       </c>
       <c r="L99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M99">
         <v>18</v>
@@ -11551,7 +11436,7 @@
     </row>
     <row r="100" spans="1:16">
       <c r="B100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D100" s="18">
         <v>43514</v>
@@ -11569,7 +11454,7 @@
     </row>
     <row r="101" spans="1:16">
       <c r="B101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C101" s="17">
         <v>12032</v>
@@ -11588,7 +11473,7 @@
         <v>24</v>
       </c>
       <c r="L101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M101">
         <v>115</v>
@@ -11603,27 +11488,27 @@
     </row>
     <row r="102" spans="1:16">
       <c r="B102" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C102" s="45">
+        <v>162</v>
+      </c>
+      <c r="C102" s="43">
         <v>20816</v>
       </c>
-      <c r="D102" s="46">
+      <c r="D102" s="44">
         <v>43656</v>
       </c>
-      <c r="E102" s="46"/>
-      <c r="F102" s="45" t="s">
+      <c r="E102" s="44"/>
+      <c r="F102" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G102" s="45"/>
+      <c r="G102" s="43"/>
       <c r="H102" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N102" s="29"/>
     </row>
     <row r="103" spans="1:16">
       <c r="B103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="17">
         <v>28952</v>
@@ -11641,7 +11526,7 @@
     </row>
     <row r="104" spans="1:16">
       <c r="B104" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C104" s="20">
         <v>3072</v>
@@ -11650,7 +11535,7 @@
         <v>45176</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F104" s="17" t="s">
         <v>14</v>
@@ -11659,13 +11544,13 @@
         <v>15</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I104" s="31"/>
     </row>
     <row r="105" spans="1:16">
       <c r="B105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C105" s="17">
         <v>3072</v>
@@ -11687,13 +11572,13 @@
     <row r="106" spans="1:16">
       <c r="A106" s="16"/>
       <c r="B106" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C106" s="20">
         <v>9984</v>
       </c>
       <c r="D106" s="21">
-        <v>45176</v>
+        <v>45203</v>
       </c>
       <c r="E106" s="21"/>
       <c r="F106" s="20" t="s">
@@ -11703,13 +11588,13 @@
         <v>15</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I106" s="31"/>
     </row>
     <row r="107" spans="1:16">
       <c r="B107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C107" s="17">
         <v>13056</v>
@@ -11730,7 +11615,7 @@
     </row>
     <row r="108" spans="1:16">
       <c r="B108" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C108" s="24">
         <v>15104</v>
@@ -11740,17 +11625,17 @@
       </c>
       <c r="E108" s="25"/>
       <c r="F108" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G108" s="24"/>
       <c r="H108" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="16"/>
       <c r="B109" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C109" s="20">
         <v>10752</v>
@@ -11766,14 +11651,14 @@
         <v>15</v>
       </c>
       <c r="H109" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I109" s="31"/>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="16"/>
       <c r="B110" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C110" s="20">
         <v>3328</v>
@@ -11789,13 +11674,13 @@
         <v>15</v>
       </c>
       <c r="H110" s="15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I110" s="31"/>
     </row>
     <row r="111" spans="1:16">
       <c r="B111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C111" s="17">
         <v>12544</v>
@@ -11816,7 +11701,7 @@
     </row>
     <row r="112" spans="1:16">
       <c r="B112" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C112" s="17">
         <v>12800</v>
@@ -11832,12 +11717,12 @@
         <v>15</v>
       </c>
       <c r="H112" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="B113" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C113" s="17">
         <v>14848</v>
@@ -11859,7 +11744,7 @@
     <row r="114" spans="1:10">
       <c r="A114" s="16"/>
       <c r="B114" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C114" s="20">
         <v>10496</v>
@@ -11875,14 +11760,14 @@
         <v>15</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I114" s="31"/>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="16"/>
       <c r="B115" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C115" s="20">
         <v>4864</v>
@@ -11898,13 +11783,13 @@
         <v>15</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I115" s="31"/>
     </row>
     <row r="116" spans="1:10">
       <c r="B116" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C116" s="17">
         <v>12044</v>
@@ -11926,7 +11811,7 @@
     <row r="117" spans="1:10">
       <c r="A117" s="16"/>
       <c r="B117" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C117" s="20">
         <v>28672</v>
@@ -11944,15 +11829,15 @@
         <v>15</v>
       </c>
       <c r="H117" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="J117" t="s">
         <v>186</v>
-      </c>
-      <c r="J117" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="B118" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C118" s="20">
         <v>11008</v>
@@ -11968,28 +11853,29 @@
         <v>15</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I118" s="31"/>
     </row>
     <row r="119" spans="1:10">
-      <c r="B119" t="s">
+      <c r="B119" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C119" s="20">
+        <v>22016</v>
+      </c>
+      <c r="D119" s="21">
+        <v>45182</v>
+      </c>
+      <c r="E119" s="18"/>
+      <c r="H119" t="s">
+        <v>318</v>
+      </c>
+      <c r="I119" s="31"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="B120" t="s">
         <v>189</v>
-      </c>
-      <c r="C119" s="17">
-        <v>15616</v>
-      </c>
-      <c r="D119" s="18">
-        <v>43962</v>
-      </c>
-      <c r="E119" s="18"/>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="A120">
-        <v>18</v>
-      </c>
-      <c r="B120" t="s">
-        <v>190</v>
       </c>
       <c r="C120" s="17">
         <v>12800</v>
@@ -11998,13 +11884,13 @@
         <v>43962</v>
       </c>
       <c r="E120" s="18"/>
-      <c r="H120">
-        <v>18</v>
+      <c r="H120" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="B121" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C121" s="17">
         <v>25088</v>
@@ -12013,10 +11899,13 @@
         <v>43965</v>
       </c>
       <c r="E121" s="18"/>
+      <c r="H121" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="122" spans="1:10">
       <c r="B122" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C122" s="20">
         <v>12288</v>
@@ -12026,25 +11915,29 @@
       </c>
       <c r="E122" s="18"/>
       <c r="H122" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I122" s="31"/>
     </row>
     <row r="123" spans="1:10">
-      <c r="B123" t="s">
-        <v>193</v>
-      </c>
-      <c r="C123" s="17">
-        <v>16640</v>
-      </c>
-      <c r="D123" s="18">
-        <v>44117</v>
+      <c r="B123" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C123" s="20">
+        <v>24320</v>
+      </c>
+      <c r="D123" s="21">
+        <v>45183</v>
       </c>
       <c r="E123" s="18"/>
+      <c r="H123" t="s">
+        <v>319</v>
+      </c>
+      <c r="I123" s="31"/>
     </row>
     <row r="124" spans="1:10">
       <c r="B124" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C124" s="17">
         <v>9216</v>
@@ -12056,7 +11949,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="B125" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C125" s="17">
         <v>12888</v>
@@ -12068,7 +11961,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="B126" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C126" s="17">
         <v>1</v>
@@ -12078,7 +11971,7 @@
       </c>
       <c r="E126" s="18"/>
       <c r="F126" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I126" t="s">
         <v>96</v>
@@ -12086,7 +11979,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="B127" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C127" s="20">
         <v>10752</v>
@@ -12096,13 +11989,13 @@
       </c>
       <c r="E127" s="18"/>
       <c r="H127" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I127" s="31"/>
     </row>
     <row r="128" spans="1:10">
       <c r="B128" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C128" s="17">
         <v>26880</v>
@@ -12114,7 +12007,7 @@
     </row>
     <row r="129" spans="2:9">
       <c r="B129" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C129" s="17">
         <v>26368</v>
@@ -12126,7 +12019,7 @@
     </row>
     <row r="130" spans="2:9">
       <c r="B130" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C130" s="17">
         <v>18496</v>
@@ -12138,7 +12031,7 @@
     </row>
     <row r="131" spans="2:9">
       <c r="B131" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C131" s="20">
         <v>24832</v>
@@ -12148,13 +12041,13 @@
       </c>
       <c r="E131" s="18"/>
       <c r="H131" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I131" s="31"/>
     </row>
     <row r="132" spans="2:9">
       <c r="B132" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C132" s="20">
         <v>14582</v>
@@ -12164,13 +12057,13 @@
       </c>
       <c r="E132" s="18"/>
       <c r="H132" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I132" s="31"/>
     </row>
     <row r="133" spans="2:9">
       <c r="B133" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C133" s="17">
         <v>22272</v>
@@ -12181,26 +12074,29 @@
       <c r="E133" s="18"/>
     </row>
     <row r="134" spans="2:9">
-      <c r="B134" t="s">
-        <v>205</v>
-      </c>
-      <c r="C134" s="17">
-        <v>3848</v>
+      <c r="B134" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C134" s="20">
+        <v>3584</v>
       </c>
       <c r="D134" s="18">
-        <v>44505</v>
+        <v>45187</v>
       </c>
       <c r="E134" s="18"/>
       <c r="F134" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="I134" t="s">
+        <v>196</v>
+      </c>
+      <c r="H134" t="s">
+        <v>343</v>
+      </c>
+      <c r="I134" s="31" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="135" spans="2:9">
       <c r="B135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C135" s="17">
         <v>1</v>
@@ -12210,24 +12106,24 @@
     </row>
     <row r="136" spans="2:9">
       <c r="B136" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D136" s="18"/>
       <c r="E136" s="18"/>
     </row>
     <row r="137" spans="2:9">
       <c r="B137" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="138" spans="2:9">
       <c r="B138" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="139" spans="2:9">
       <c r="B139" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C139" s="17">
         <v>11264</v>
@@ -12235,12 +12131,12 @@
     </row>
     <row r="140" spans="2:9">
       <c r="B140" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="141" spans="2:9">
       <c r="B141" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C141" s="17">
         <v>1803</v>
@@ -12248,7 +12144,7 @@
     </row>
     <row r="142" spans="2:9">
       <c r="B142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C142" s="17">
         <v>4902</v>
@@ -12256,7 +12152,7 @@
     </row>
     <row r="143" spans="2:9">
       <c r="B143" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C143" s="17">
         <v>254</v>
@@ -12264,7 +12160,7 @@
     </row>
     <row r="144" spans="2:9">
       <c r="B144" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C144" s="17">
         <v>671020</v>
@@ -12272,12 +12168,12 @@
     </row>
     <row r="145" spans="2:9">
       <c r="B145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="146" spans="2:9">
       <c r="B146" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C146" s="17">
         <v>60471</v>
@@ -12286,7 +12182,7 @@
         <v>43180</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I146" t="s">
         <v>96</v>
@@ -12294,194 +12190,358 @@
     </row>
     <row r="147" spans="2:9">
       <c r="B147" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I147">
         <f>SUBTOTAL(103,Table1[Subcription])</f>
         <v>36</v>
       </c>
     </row>
+    <row r="148" spans="2:9">
+      <c r="D148" s="18">
+        <v>45202</v>
+      </c>
+      <c r="E148" s="17">
+        <v>151552</v>
+      </c>
+    </row>
     <row r="149" spans="2:9">
-      <c r="F149" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="G149" s="40">
+      <c r="F149" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G149" s="39">
         <v>3072</v>
       </c>
+      <c r="H149" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="150" spans="2:9">
-      <c r="F150" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="G150" s="40">
+      <c r="D150" s="18">
+        <v>45203</v>
+      </c>
+      <c r="E150" s="17">
         <v>9984</v>
       </c>
+      <c r="F150" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="G150" s="39">
+        <v>9984</v>
+      </c>
+      <c r="H150" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="151" spans="2:9">
-      <c r="F151" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="G151" s="39">
+      <c r="F151" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G151" s="38">
         <v>10752</v>
       </c>
+      <c r="H151" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="152" spans="2:9">
-      <c r="F152" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="G152" s="40">
+      <c r="F152" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="G152" s="39">
         <v>3328</v>
       </c>
+      <c r="H152" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="153" spans="2:9">
-      <c r="F153" s="40" t="s">
+      <c r="F153" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="G153" s="39">
+        <v>11008</v>
+      </c>
+      <c r="H153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9">
+      <c r="F154" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="G154" s="39">
+        <v>10496</v>
+      </c>
+      <c r="H154" s="53" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9">
+      <c r="F155" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="G155" s="40">
+        <v>4864</v>
+      </c>
+      <c r="H155" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9">
+      <c r="D156" s="18">
+        <v>45202</v>
+      </c>
+      <c r="E156" s="17">
+        <v>11008</v>
+      </c>
+      <c r="F156" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="G156" s="40">
+        <v>11008</v>
+      </c>
+      <c r="H156" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9">
+      <c r="C157" s="17">
+        <f>E157-G157</f>
+        <v>1024</v>
+      </c>
+      <c r="D157" s="18">
+        <v>45203</v>
+      </c>
+      <c r="E157" s="17">
+        <v>17408</v>
+      </c>
+      <c r="F157" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="G157" s="40">
+        <v>16384</v>
+      </c>
+      <c r="H157" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9">
+      <c r="F158" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="G158" s="40">
+        <v>8192</v>
+      </c>
+      <c r="H158" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9">
+      <c r="D159" s="18">
+        <v>45202</v>
+      </c>
+      <c r="E159" s="17">
+        <v>22784</v>
+      </c>
+      <c r="F159" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="G159" s="40">
+        <v>22784</v>
+      </c>
+      <c r="H159" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9">
+      <c r="D160" s="18">
+        <v>45203</v>
+      </c>
+      <c r="E160" s="17">
+        <v>8960</v>
+      </c>
+      <c r="F160" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="G160" s="40">
+        <v>8960</v>
+      </c>
+      <c r="H160" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="161" spans="4:8">
+      <c r="F161" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G161" s="42">
+        <v>55040</v>
+      </c>
+      <c r="H161" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="162" spans="4:8">
+      <c r="D162" s="18">
+        <v>45203</v>
+      </c>
+      <c r="E162" s="17">
+        <v>30720</v>
+      </c>
+      <c r="F162" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G162" s="40">
+        <v>30720</v>
+      </c>
+      <c r="H162" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="163" spans="4:8">
+      <c r="F163" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="G163" s="39">
+        <v>9984</v>
+      </c>
+      <c r="H163" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="164" spans="4:8">
+      <c r="F164" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="G164" s="38">
+        <v>24832</v>
+      </c>
+      <c r="H164" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="165" spans="4:8">
+      <c r="F165" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="G165" s="39">
+        <v>18432</v>
+      </c>
+    </row>
+    <row r="166" spans="4:8">
+      <c r="F166" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="G166" s="39">
+        <v>12288</v>
+      </c>
+      <c r="H166" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="167" spans="4:8" ht="15.75">
+      <c r="F167" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="G167" s="38">
+        <v>14592</v>
+      </c>
+      <c r="H167" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="168" spans="4:8">
+      <c r="D168" s="18">
+        <v>45203</v>
+      </c>
+      <c r="E168" s="17">
+        <v>10496</v>
+      </c>
+      <c r="F168" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="G168" s="39">
+        <v>10496</v>
+      </c>
+      <c r="H168" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="169" spans="4:8">
+      <c r="E169" s="17">
+        <f>SUM(E148:E168)</f>
+        <v>262912</v>
+      </c>
+      <c r="F169" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G169" s="40">
+        <v>11520</v>
+      </c>
+      <c r="H169" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="170" spans="4:8">
+      <c r="F170" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="G170" s="38">
+        <v>10752</v>
+      </c>
+      <c r="H170" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="171" spans="4:8">
+      <c r="F171" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G171" s="40">
+        <v>16640</v>
+      </c>
+      <c r="H171" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="172" spans="4:8">
+      <c r="F172" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="G153" s="40">
-        <v>11008</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9">
-      <c r="F154" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="G154" s="40">
-        <v>10496</v>
-      </c>
-      <c r="H154" s="48"/>
-    </row>
-    <row r="155" spans="2:9">
-      <c r="F155" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="G155" s="41">
-        <v>4864</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9">
-      <c r="F156" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="G156" s="41">
-        <v>11008</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9">
-      <c r="F157" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G157" s="41">
-        <v>16384</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9">
-      <c r="F158" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="G158" s="41">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9">
-      <c r="F159" s="41" t="s">
-        <v>305</v>
-      </c>
-      <c r="G159" s="41">
-        <v>22784</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9">
-      <c r="F160" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="G160" s="41">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="161" spans="6:7">
-      <c r="F161" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="G161" s="44">
-        <v>55040</v>
-      </c>
-    </row>
-    <row r="162" spans="6:7">
-      <c r="F162" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="G162" s="41">
-        <v>30720</v>
-      </c>
-    </row>
-    <row r="163" spans="6:7">
-      <c r="F163" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="G163" s="40">
-        <v>9984</v>
-      </c>
-    </row>
-    <row r="164" spans="6:7">
-      <c r="F164" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="G164" s="39">
-        <v>24832</v>
-      </c>
-    </row>
-    <row r="165" spans="6:7">
-      <c r="F165" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="G165" s="40">
-        <v>18432</v>
-      </c>
-    </row>
-    <row r="166" spans="6:7">
-      <c r="F166" s="40" t="s">
+      <c r="G172" s="40">
+        <v>22016</v>
+      </c>
+      <c r="H172" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="173" spans="4:8">
+      <c r="F173" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="G166" s="40">
-        <v>12288</v>
-      </c>
-    </row>
-    <row r="167" spans="6:7" ht="15.75">
-      <c r="F167" s="49" t="s">
-        <v>258</v>
-      </c>
-      <c r="G167" s="39">
-        <v>14592</v>
-      </c>
-    </row>
-    <row r="168" spans="6:7">
-      <c r="F168" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="G168" s="40">
-        <v>10496</v>
-      </c>
-    </row>
-    <row r="169" spans="6:7">
-      <c r="F169" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="G169" s="41">
-        <v>11520</v>
-      </c>
-    </row>
-    <row r="170" spans="6:7">
-      <c r="F170" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="G170" s="39">
-        <v>10752</v>
-      </c>
-    </row>
-    <row r="171" spans="6:7">
-      <c r="G171" s="17">
-        <f>SUM(G149:G170)</f>
-        <v>319488</v>
+      <c r="G173" s="38">
+        <v>24320</v>
+      </c>
+      <c r="H173" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="174" spans="4:8">
+      <c r="F174" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="G174" s="39">
+        <v>3584</v>
+      </c>
+      <c r="H174" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="175" spans="4:8">
+      <c r="G175" s="17">
+        <f>SUM(G149:G174)</f>
+        <v>386048</v>
       </c>
     </row>
   </sheetData>
@@ -12504,10 +12564,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A4:V35"/>
+  <dimension ref="A4:V36"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B34"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12518,6 +12578,7 @@
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
@@ -12528,7 +12589,7 @@
   <sheetData>
     <row r="4" spans="1:22" ht="15.75">
       <c r="B4" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -12537,37 +12598,37 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>96</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="U4" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" t="s">
         <v>228</v>
-      </c>
-      <c r="V4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75">
@@ -12575,10 +12636,10 @@
         <v>62</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
+      </c>
+      <c r="C5" s="54">
+        <v>45202</v>
       </c>
       <c r="D5" s="3">
         <v>447065</v>
@@ -12587,7 +12648,7 @@
         <v>13000000</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G5" s="8">
         <v>44897</v>
@@ -12605,13 +12666,13 @@
         <v>26</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V5">
         <v>13000000</v>
@@ -12622,10 +12683,10 @@
         <v>62</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="D6" s="3">
         <v>54697</v>
@@ -12634,7 +12695,7 @@
         <v>305900</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G6" s="8">
         <v>44616</v>
@@ -12647,16 +12708,16 @@
         <v>22</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L6" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="U6" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="V6">
         <v>305900</v>
@@ -12667,10 +12728,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="D7" s="3">
         <v>3570</v>
@@ -12679,7 +12740,7 @@
         <v>50000</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G7" s="8">
         <v>44634</v>
@@ -12699,7 +12760,7 @@
       </c>
       <c r="M7" s="3"/>
       <c r="U7" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="V7">
         <v>50000</v>
@@ -12710,10 +12771,10 @@
         <v>62</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="D8">
         <v>152498</v>
@@ -12722,7 +12783,7 @@
         <v>11000000</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G8" s="8">
         <v>44633</v>
@@ -12738,13 +12799,13 @@
         <v>26</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="V8">
         <v>11000000</v>
@@ -12752,13 +12813,13 @@
     </row>
     <row r="9" spans="1:22" ht="15.75">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>236</v>
+        <v>243</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="D9">
         <v>28604</v>
@@ -12767,7 +12828,7 @@
         <v>50000</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G9" s="8">
         <v>44897</v>
@@ -12785,11 +12846,11 @@
         <v>26</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M9" s="3"/>
       <c r="U9" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="V9">
         <v>50000</v>
@@ -12797,13 +12858,13 @@
     </row>
     <row r="10" spans="1:22" ht="15.75">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>236</v>
+        <v>245</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="D10">
         <v>241030</v>
@@ -12812,7 +12873,7 @@
         <v>2000000</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G10" s="8">
         <v>44753</v>
@@ -12828,13 +12889,13 @@
         <v>26</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V10">
         <v>2000000</v>
@@ -12845,10 +12906,10 @@
         <v>62</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>236</v>
+        <v>249</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="D11">
         <v>64595</v>
@@ -12857,7 +12918,7 @@
         <v>1600000</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G11" s="8">
         <v>44653</v>
@@ -12870,16 +12931,16 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="V11">
         <v>1600000</v>
@@ -12890,10 +12951,10 @@
         <v>62</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>236</v>
+        <v>253</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="D12">
         <v>100340</v>
@@ -12902,7 +12963,7 @@
         <v>93590</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G12" s="8">
         <v>44676</v>
@@ -12916,13 +12977,13 @@
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="V12">
         <v>93590</v>
@@ -12933,10 +12994,10 @@
         <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>236</v>
+        <v>256</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="D13">
         <v>21178</v>
@@ -12945,7 +13006,7 @@
         <v>45090</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G13" s="8">
         <v>44907</v>
@@ -12955,17 +13016,17 @@
         <v>15</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M13" s="3"/>
       <c r="U13" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="V13">
         <v>45090</v>
@@ -12976,10 +13037,10 @@
         <v>62</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>236</v>
+        <v>259</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="D14">
         <v>179438</v>
@@ -12988,7 +13049,7 @@
         <v>1500000</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G14" s="8">
         <v>44701</v>
@@ -13001,16 +13062,16 @@
         <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="V14">
         <v>1500000</v>
@@ -13021,10 +13082,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>236</v>
+        <v>262</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="D15">
         <v>54602</v>
@@ -13033,7 +13094,7 @@
         <v>50000</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -13042,7 +13103,7 @@
       </c>
       <c r="M15" s="3"/>
       <c r="U15" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="V15">
         <v>50000</v>
@@ -13053,10 +13114,10 @@
         <v>62</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>236</v>
+        <v>264</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="D16">
         <v>129341</v>
@@ -13065,7 +13126,7 @@
         <v>4100000</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G16" s="8">
         <v>44463</v>
@@ -13078,16 +13139,16 @@
         <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="V16">
         <v>4100000</v>
@@ -13098,10 +13159,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>236</v>
+        <v>268</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="D17">
         <v>87478</v>
@@ -13110,7 +13171,7 @@
         <v>491000</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G17" s="8">
         <v>44463</v>
@@ -13123,16 +13184,16 @@
         <v>22</v>
       </c>
       <c r="K17" t="s">
+        <v>266</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="U17" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="V17">
         <v>491000</v>
@@ -13143,9 +13204,9 @@
         <v>62</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18" s="8">
+        <v>271</v>
+      </c>
+      <c r="C18" s="54">
         <v>44783</v>
       </c>
       <c r="D18">
@@ -13155,7 +13216,7 @@
         <v>50000</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G18" s="8">
         <v>45148</v>
@@ -13170,14 +13231,14 @@
         <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M18" s="3"/>
       <c r="U18" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="V18">
         <v>50000</v>
@@ -13188,10 +13249,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>236</v>
+        <v>274</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="D19">
         <v>76317</v>
@@ -13200,7 +13261,7 @@
         <v>443000</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G19" s="8">
         <v>44822</v>
@@ -13216,13 +13277,13 @@
         <v>26</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="V19">
         <v>443000</v>
@@ -13233,10 +13294,10 @@
         <v>62</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>236</v>
+        <v>277</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="D20" s="3">
         <v>42752</v>
@@ -13245,7 +13306,7 @@
         <v>2100000</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G20" s="8">
         <v>44897</v>
@@ -13261,13 +13322,13 @@
         <v>26</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="V20">
         <v>2100000</v>
@@ -13275,10 +13336,10 @@
     </row>
     <row r="21" spans="1:22" ht="15.75">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -13292,7 +13353,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="U21" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="V21">
         <v>36878580</v>
@@ -13303,70 +13364,124 @@
     </row>
     <row r="25" spans="1:22" ht="15.75">
       <c r="B25" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C25" s="33">
         <v>22784</v>
       </c>
       <c r="F25" s="17"/>
+      <c r="I25" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="26" spans="1:22" ht="15.75">
       <c r="B26" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C26" s="34">
         <v>148480</v>
       </c>
+      <c r="D26">
+        <v>151552</v>
+      </c>
+      <c r="E26">
+        <f>D26-C26</f>
+        <v>3072</v>
+      </c>
       <c r="F26" s="17"/>
+      <c r="I26" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="27" spans="1:22" ht="15.75">
       <c r="B27" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C27" s="33">
         <v>9696</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="1"/>
+      <c r="I27" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="J27" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="28" spans="1:22" ht="15.75">
       <c r="B28" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C28" s="33">
         <v>10240</v>
       </c>
       <c r="F28" s="17"/>
+      <c r="I28" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="29" spans="1:22" ht="15.75">
-      <c r="B29" s="32"/>
+      <c r="B29" s="32" t="s">
+        <v>245</v>
+      </c>
       <c r="C29" s="33">
-        <v>0</v>
+        <v>16359</v>
+      </c>
+      <c r="D29" t="s">
+        <v>324</v>
       </c>
       <c r="F29" s="17"/>
+      <c r="I29" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="30" spans="1:22" ht="15.75">
       <c r="B30" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C30" s="33">
         <v>27904</v>
       </c>
       <c r="F30" s="17"/>
+      <c r="I30" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J30" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="31" spans="1:22" ht="15.75">
       <c r="B31" s="32" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C31" s="33">
         <v>9984</v>
       </c>
       <c r="F31" s="17"/>
+      <c r="I31" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="32" spans="1:22" ht="15.75">
       <c r="B32" s="32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C32" s="33">
         <v>11008</v>
@@ -13375,25 +13490,36 @@
     </row>
     <row r="33" spans="2:8" ht="15.75">
       <c r="B33" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C33" s="33">
         <v>29184</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15.75">
-      <c r="B34" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="C34" s="33">
+      <c r="B34" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="34">
         <v>33024</v>
       </c>
-      <c r="H34" s="38"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="C35">
-        <f>SUM(C25:C34)</f>
-        <v>302304</v>
+      <c r="H34" s="37"/>
+    </row>
+    <row r="35" spans="2:8" ht="15.75">
+      <c r="B35" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" s="34">
+        <v>15360</v>
+      </c>
+      <c r="D35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="C36">
+        <f>SUM(C25:C35)</f>
+        <v>334023</v>
       </c>
     </row>
   </sheetData>
@@ -13441,10 +13567,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B4:I18"/>
+  <dimension ref="B4:I21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13459,7 +13585,7 @@
   <sheetData>
     <row r="4" spans="2:9" ht="15.75">
       <c r="B4" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -13480,12 +13606,12 @@
         <v>7</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75">
       <c r="B5" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -13497,7 +13623,7 @@
     </row>
     <row r="6" spans="2:9" ht="15.75">
       <c r="B6" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -13509,7 +13635,7 @@
     </row>
     <row r="7" spans="2:9" ht="15.75">
       <c r="B7" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -13521,7 +13647,7 @@
     </row>
     <row r="8" spans="2:9" ht="15.75">
       <c r="B8" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -13533,7 +13659,7 @@
     </row>
     <row r="9" spans="2:9" ht="15.75">
       <c r="B9" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -13545,7 +13671,7 @@
     </row>
     <row r="10" spans="2:9" ht="15.75">
       <c r="B10" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -13557,7 +13683,7 @@
     </row>
     <row r="11" spans="2:9" ht="15.75">
       <c r="B11" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -13568,94 +13694,117 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" ht="15.75">
-      <c r="B12" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="2"/>
+      <c r="B12" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="50">
+        <v>22528</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" ht="15.75">
       <c r="B13" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75">
-      <c r="B14" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" s="50">
+        <v>22272</v>
+      </c>
+      <c r="D14" s="49">
+        <v>45189</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" ht="15.75">
       <c r="B15" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" ht="15.75">
-      <c r="B16" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="50">
+        <v>8448</v>
+      </c>
+      <c r="D16" s="49">
+        <v>45188</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" ht="15.75">
       <c r="B17" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>299</v>
-      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" ht="15.75">
-      <c r="B18" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
+        <f>SUM(C5:C17)</f>
+        <v>53248</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.75">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13686,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13803,7 +13952,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B16">
         <v>40000</v>
@@ -14107,7 +14256,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54">
         <v>2500000</v>
@@ -14115,7 +14264,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55">
         <v>40000</v>
@@ -14123,7 +14272,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56">
         <v>213800</v>
@@ -14131,7 +14280,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57">
         <v>372200</v>
@@ -14139,7 +14288,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58">
         <v>297600</v>
@@ -14147,7 +14296,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59">
         <v>40000</v>
@@ -14155,7 +14304,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B60">
         <v>94900</v>
@@ -14163,7 +14312,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B61">
         <v>40000</v>
@@ -14171,7 +14320,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62">
         <v>293300</v>
@@ -14179,7 +14328,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63">
         <v>40000</v>
@@ -14187,7 +14336,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64">
         <v>162500</v>
@@ -14195,7 +14344,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B65">
         <v>40000</v>
@@ -14203,7 +14352,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B66">
         <v>136900</v>
@@ -14211,7 +14360,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B67">
         <v>751700</v>
@@ -14219,7 +14368,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B68">
         <v>210700</v>
@@ -14227,7 +14376,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69">
         <v>91900</v>
@@ -14235,7 +14384,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B70">
         <v>40000</v>
@@ -14243,7 +14392,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B71">
         <v>40000</v>
@@ -14251,7 +14400,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B72">
         <v>40000</v>
@@ -14259,7 +14408,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B73">
         <v>40000</v>
@@ -14267,7 +14416,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B74">
         <v>40000</v>
@@ -14275,7 +14424,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B75">
         <v>56200</v>
@@ -14283,7 +14432,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B76">
         <v>40000</v>
@@ -14291,7 +14440,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77">
         <v>40000</v>
@@ -14299,7 +14448,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B78">
         <v>40000</v>
@@ -14307,7 +14456,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B79">
         <v>40000</v>
@@ -14315,7 +14464,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B80">
         <v>40000</v>
@@ -14323,7 +14472,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B81">
         <v>519800</v>
@@ -14331,7 +14480,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B82">
         <v>40000</v>
@@ -14339,7 +14488,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B83">
         <v>40000</v>
@@ -14347,7 +14496,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B84">
         <v>40000</v>
@@ -14355,7 +14504,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B85">
         <v>40000</v>
@@ -14363,7 +14512,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B86">
         <v>790000</v>
@@ -14371,7 +14520,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B87">
         <v>450500</v>
@@ -14379,7 +14528,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B88">
         <v>40000</v>
@@ -14387,7 +14536,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B89">
         <v>40000</v>
@@ -14395,7 +14544,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B90">
         <v>92500</v>
@@ -14403,7 +14552,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B91">
         <v>177400</v>
@@ -14411,7 +14560,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B92">
         <v>224900</v>
@@ -14419,7 +14568,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B93">
         <v>94900</v>
@@ -14427,7 +14576,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B94">
         <v>2700000</v>
@@ -14435,7 +14584,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B95">
         <v>915200</v>
@@ -14443,7 +14592,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B96">
         <v>40000</v>
@@ -14451,7 +14600,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B97">
         <v>40000</v>
@@ -14459,7 +14608,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B98">
         <v>40000</v>
@@ -14467,7 +14616,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B99">
         <v>1100000</v>
@@ -14475,7 +14624,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B100">
         <v>40000</v>
@@ -14483,7 +14632,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B101">
         <v>97300</v>
@@ -14491,7 +14640,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B102">
         <v>49500</v>
@@ -14499,7 +14648,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B103">
         <v>115500</v>
@@ -14507,7 +14656,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B104">
         <v>95900</v>
@@ -14515,7 +14664,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B105">
         <v>2700000</v>
@@ -14523,7 +14672,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B106">
         <v>407400</v>
@@ -14531,7 +14680,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B107">
         <v>340800</v>
@@ -14539,7 +14688,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B108">
         <v>40000</v>
@@ -14547,7 +14696,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B109">
         <v>40000</v>
@@ -14555,7 +14704,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B110">
         <v>40000</v>
@@ -14563,7 +14712,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B111">
         <v>2700000</v>
@@ -14571,7 +14720,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B112">
         <v>40000</v>
@@ -14579,7 +14728,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B113">
         <v>62400</v>
@@ -14587,7 +14736,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B114">
         <v>450000</v>
@@ -14595,7 +14744,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B115">
         <v>77900</v>
@@ -14603,7 +14752,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B116">
         <v>62300</v>
@@ -14611,7 +14760,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B117">
         <v>40000</v>
@@ -14619,7 +14768,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B118">
         <v>40000</v>
@@ -14627,7 +14776,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B119">
         <v>2400000</v>
@@ -14635,7 +14784,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B120">
         <v>361000</v>
